--- a/medicine/Psychotrope/Hallucinose_alcoolique/Hallucinose_alcoolique.xlsx
+++ b/medicine/Psychotrope/Hallucinose_alcoolique/Hallucinose_alcoolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hallucinose alcoolique (encore nommée hallucinose des buveurs) décrit un état hallucinatoire aigu sans trouble confusionnel, avec un automatisme mental chez la personne souffrant d'alcoolisme chronique survenant dans les 12 à 24 heures après sevrage.
 Cette dénomination ancienne correspondrait selon certains  à l’actuel delirium tremens sans arguments pertinents pour justifier leur éventuelle équivalence symptomatologique. En effet les deux syndromes ont été décrits et discutés comme deux entités distinctes lors de leurs conceptualisations sur le plan pathologique.voir Carl Wernicke.
